--- a/kukumo-plugins/kukumo-db/src/test/resources/data1.xlsx
+++ b/kukumo-plugins/kukumo-db/src/test/resources/data1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="user" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="client" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="city" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="user_city" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="#info" sheetId="4" state="visible" r:id="rId5"/>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">Tordesillas</t>
   </si>
   <si>
-    <t xml:space="preserve">user_id</t>
+    <t xml:space="preserve">client_id</t>
   </si>
   <si>
     <t xml:space="preserve">city_id</t>
@@ -105,6 +105,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -196,17 +197,17 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.78"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -280,7 +281,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -295,13 +296,13 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="D2:D4 B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -351,7 +352,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -366,13 +367,13 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D34" activeCellId="1" sqref="D2:D4 D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -426,7 +427,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -441,13 +442,13 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2:D4 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -458,7 +459,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
